--- a/Data/model_outputs_scenario_2/total_energy_use.xlsx
+++ b/Data/model_outputs_scenario_2/total_energy_use.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8014322782.309743</v>
+        <v>2138804981.158982</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8003492361.939867</v>
+        <v>2139526041.86859</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7999415960.044987</v>
+        <v>2142097914.686991</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7992457935.566086</v>
+        <v>2143942338.260793</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7985792641.593966</v>
+        <v>2145905736.913566</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7979394097.259961</v>
+        <v>2147978882.529763</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7973238131.295366</v>
+        <v>2150154224.376956</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7967307182.798281</v>
+        <v>2152424702.733198</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7961577228.52652</v>
+        <v>2154784410.039358</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7956035073.192079</v>
+        <v>2157227945.907773</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7950667516.574421</v>
+        <v>2159751222.042228</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7945461149.023486</v>
+        <v>2162349955.807718</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7940403745.950067</v>
+        <v>2165021243.927349</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7935486320.882552</v>
+        <v>2167761864.231871</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7930704963.195162</v>
+        <v>2170569453.038857</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7926048348.694452</v>
+        <v>2173441791.101225</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7921508668.210102</v>
+        <v>2176377184.191926</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7917080924.090687</v>
+        <v>2179374122.756116</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7912760654.713968</v>
+        <v>2182431511.866107</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7908544345.787774</v>
+        <v>2185548650.309197</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7904427873.688917</v>
+        <v>2188724510.197807</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7900407866.71697</v>
+        <v>2191958323.450936</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7896480854.065405</v>
+        <v>2195248978.190609</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7892644432.800177</v>
+        <v>2198596799.092504</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7888891530.137478</v>
+        <v>2202001589.231447</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7885226398.533495</v>
+        <v>2205463490.502785</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7881640658.229565</v>
+        <v>2208982371.227073</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7878137157.603169</v>
+        <v>2212558413.586568</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>7874713597.302741</v>
+        <v>2216191652.774745</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7871365212.340923</v>
+        <v>2219882561.703291</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7868091791.745724</v>
+        <v>2223630946.461398</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7864892406.771627</v>
+        <v>2227437800.992536</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7861764878.747596</v>
+        <v>2231301418.624073</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7858710167.688366</v>
+        <v>2235224973.213418</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>7855725757.125043</v>
+        <v>2239206789.579248</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7852814401.920023</v>
+        <v>2243250111.474703</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7849967021.364602</v>
+        <v>2247352396.291162</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7847188732.667823</v>
+        <v>2251516295.356815</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>7844473551.897429</v>
+        <v>2255740800.341888</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>7841826193.792615</v>
+        <v>2260028805.54682</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7839241758.409468</v>
+        <v>2264379568.94417</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7836722357.980059</v>
+        <v>2268795069.831059</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7834262195.699541</v>
+        <v>2273274337.160438</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>7831862500.355412</v>
+        <v>2277819259.891344</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>7829520447.706559</v>
+        <v>2282429786.712303</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>7827238153.93432</v>
+        <v>2287108143.925932</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7825014526.215833</v>
+        <v>2291855055.130577</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>7822844248.716914</v>
+        <v>2296670125.132672</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7820728014.109143</v>
+        <v>2301555053.005863</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7818662814.119875</v>
+        <v>2306509970.40515</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7816650454.803418</v>
+        <v>2311537170.028351</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7814689651.921011</v>
+        <v>2316637704.817971</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7812774730.641304</v>
+        <v>2321811153.48953</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>7810903863.013066</v>
+        <v>2327058246.167996</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7809078434.219073</v>
+        <v>2332381328.200587</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>7807298796.30754</v>
+        <v>2337782073.85403</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>7805557628.168782</v>
+        <v>2343259558.214925</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>7803854941.463059</v>
+        <v>2348815399.136883</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>7802193627.712508</v>
+        <v>2354452422.471277</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>7800565276.99004</v>
+        <v>2360169555.79668</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>7798970127.777683</v>
+        <v>2365968395.442823</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>7797407119.561754</v>
+        <v>2371850821.89049</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>7795876486.037328</v>
+        <v>2377818612.072618</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>7794369469.536972</v>
+        <v>2383870640.39083</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7792888943.043124</v>
+        <v>2390009770.285069</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>7791434336.203315</v>
+        <v>2396237834.388535</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>7789995456.214045</v>
+        <v>2402553321.830643</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>7788577186.172193</v>
+        <v>2408959926.720694</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>7787178181.598786</v>
+        <v>2415459273.310175</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>7785788075.793864</v>
+        <v>2422049740.218425</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>7784415525.925339</v>
+        <v>2428736437.768002</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>7783047545.385382</v>
+        <v>2435516804.447958</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>7781690204.183094</v>
+        <v>2442395301.818408</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>7780338366.965772</v>
+        <v>2449372227.895644</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>7778986944.62121</v>
+        <v>2456447835.425693</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>7777637208.563441</v>
+        <v>2463624972.627228</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>7776284164.629012</v>
+        <v>2470903880.050624</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>7774929632.97573</v>
+        <v>2478287761.977693</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>7773567519.289122</v>
+        <v>2485775968.665645</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>7772199572.325014</v>
+        <v>2493372032.247406</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>7770820563.554094</v>
+        <v>2501075718.939737</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>7769429148.72832</v>
+        <v>2508889332.332716</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>7768022186.388773</v>
+        <v>2516813310.345017</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>7766601854.951283</v>
+        <v>2524851276.436495</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>7765161713.009568</v>
+        <v>2533002824.300894</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>7763705726.476842</v>
+        <v>2541271753.286829</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>7762224029.077737</v>
+        <v>2549656438.740538</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7760723932.011633</v>
+        <v>2558161895.84574</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>7759197993.719344</v>
+        <v>2566787222.717062</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>7757650152.756552</v>
+        <v>2575536232.659854</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>7756073001.340157</v>
+        <v>2584408001.475127</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>7754471379.451856</v>
+        <v>2593406691.744878</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>7752842140.507592</v>
+        <v>2602533076.907247</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>7751183781.843042</v>
+        <v>2611788346.711464</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>7749501476.774402</v>
+        <v>2621176617.28282</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>7747785036.072626</v>
+        <v>2630695896.646787</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>7746041235.412457</v>
+        <v>2640350250.011707</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>7744270731.421508</v>
+        <v>2650142364.751352</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>7742473044.364872</v>
+        <v>2660072896.860748</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>7740646858.770391</v>
+        <v>2670143798.40632</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>7738796471.951915</v>
+        <v>2680357948.407447</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>7736917517.67197</v>
+        <v>2690715105.088033</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>7735016329.299014</v>
+        <v>2701219306.561803</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>7733095678.132066</v>
+        <v>2711873049.420057</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>7731150464.437088</v>
+        <v>2722675200.549982</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>7729190941.717979</v>
+        <v>2733631570.315687</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>7727214897.714782</v>
+        <v>2744742255.984163</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>7725226180.376823</v>
+        <v>2756009735.887812</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>7723224161.609047</v>
+        <v>2767434804.146401</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>7721217441.509174</v>
+        <v>2779021878.581501</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>7719210081.252507</v>
+        <v>2790773134.910877</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>7717200106.136867</v>
+        <v>2802688418.192833</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>7715195372.76425</v>
+        <v>2814771564.640289</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>7713204493.337106</v>
+        <v>2827026587.839605</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>7711225425.870468</v>
+        <v>2839452795.94188</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>7709261957.690812</v>
+        <v>2852052187.014485</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>7707325686.234475</v>
+        <v>2864829675.25618</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>7705422143.027127</v>
+        <v>2877787695.977056</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>7703554564.447374</v>
+        <v>2890927333.839855</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>7701727402.00482</v>
+        <v>2904250068.774662</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>7699950459.884236</v>
+        <v>2917760158.826776</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>7698228985.778668</v>
+        <v>2931459553.53048</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>7696576416.569305</v>
+        <v>2945352710.094906</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>7694987834.326831</v>
+        <v>2959437228.402859</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>7693486651.990252</v>
+        <v>2973722137.247392</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>7692068336.553945</v>
+        <v>2988205531.816839</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>7690750476.075911</v>
+        <v>3002892936.090302</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>7689531451.145658</v>
+        <v>3017783451.976906</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>7688432305.688977</v>
+        <v>3032884253.115394</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>7687452675.231697</v>
+        <v>3048194950.387314</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>7686609483.840493</v>
+        <v>3063720610.448123</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>7685903321.928866</v>
+        <v>3079460870.256594</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>7685356645.794814</v>
+        <v>3095423294.419376</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>7684968782.882425</v>
+        <v>3111607028.031505</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>7684757878.721947</v>
+        <v>3128017320.979705</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>7684727109.941701</v>
+        <v>3144654804.190224</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>7684900067.068706</v>
+        <v>3161527177.342176</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>7685271443.691012</v>
+        <v>3178631307.987397</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>7685866999.897503</v>
+        <v>3195975582.971251</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>7686689718.020668</v>
+        <v>3213560766.0699</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>7687758087.403731</v>
+        <v>3231391704.877385</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>7689070724.186883</v>
+        <v>3249466740.547135</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>7690660041.408656</v>
+        <v>3267797404.102962</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>7692520948.9706</v>
+        <v>3286380693.974748</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>7694674617.4519</v>
+        <v>3305222521.362089</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>7697127986.377889</v>
+        <v>3324325355.453869</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>7699903314.869019</v>
+        <v>3343696030.509551</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>7702997365.550055</v>
+        <v>3363331806.199879</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>7706439805.418204</v>
+        <v>3383243253.998585</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>7710229651.834304</v>
+        <v>3403428636.946932</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>7714388260.69928</v>
+        <v>3423894646.986347</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>7718922483.69438</v>
+        <v>3444643836.415153</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>7723851238.073846</v>
+        <v>3465681267.692554</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>7729180923.39009</v>
+        <v>3487009280.933312</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>7734932571.398615</v>
+        <v>3508634544.213119</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>7741105874.573331</v>
+        <v>3530556081.013491</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>7747722105.902773</v>
+        <v>3552781184.174569</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>7754789732.204485</v>
+        <v>3575312609.986283</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>7762330557.792728</v>
+        <v>3598158127.590591</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>7770347755.185092</v>
+        <v>3621318691.211617</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>7778859318.499964</v>
+        <v>3644799838.185056</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>7787871366.756958</v>
+        <v>3668604807.04778</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>7797402717.85495</v>
+        <v>3692739696.391671</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>7807461718.906877</v>
+        <v>3717208618.857799</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>7818060428.324027</v>
+        <v>3742014301.826403</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>7829207822.453387</v>
+        <v>3767162409.444612</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>7840924243.623464</v>
+        <v>3792659895.78921</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>7853206120.624019</v>
+        <v>3818505905.528387</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>7866082633.111576</v>
+        <v>3844712216.438004</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>7879548355.221139</v>
+        <v>3871277772.242587</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>7893628562.46417</v>
+        <v>3898212640.375989</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>7908317473.524427</v>
+        <v>3925515148.94544</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>7923645238.628087</v>
+        <v>3953199312.960942</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>7939600656.118052</v>
+        <v>3981260249.368802</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>7956214663.404997</v>
+        <v>4009712807.551022</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>7973476577.743466</v>
+        <v>4038553334.945908</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>7991418339.365499</v>
+        <v>4067797290.805941</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>8010024495.151616</v>
+        <v>4097438541.270284</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>8029327945.26753</v>
+        <v>4127493779.688363</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>8049316444.234646</v>
+        <v>4157958936.954741</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>8070019308.965736</v>
+        <v>4188849133.287833</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>8091423788.436331</v>
+        <v>4220160432.087076</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>8113560771.716755</v>
+        <v>4251909402.761743</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>8136414131.434916</v>
+        <v>4284090274.032903</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>8160015305.504964</v>
+        <v>4316720740.710213</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>8184352715.989766</v>
+        <v>4349797672.842723</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>8209448805.33961</v>
+        <v>4383334101.613087</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>8235295599.172499</v>
+        <v>4417329931.840367</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>8261918879.718909</v>
+        <v>4451799247.885956</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>8289304863.511437</v>
+        <v>4486740543.991501</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>8317479885.669133</v>
+        <v>4522168254.925788</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>8346432957.524607</v>
+        <v>4558081632.611065</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>8376185077.733951</v>
+        <v>4594494324.483061</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>8406729410.696573</v>
+        <v>4631407312.677647</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>8438085805.019933</v>
+        <v>4668834015.067895</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>8470248849.926242</v>
+        <v>4706776844.459642</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>8503228367.310532</v>
+        <v>4745244131.795829</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>8537030973.00812</v>
+        <v>4784244551.964924</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>8571664583.141203</v>
+        <v>4823786103.464449</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>8607126191.65925</v>
+        <v>4863873086.459952</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>8643431819.720724</v>
+        <v>4904517928.598398</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>8680581419.549881</v>
+        <v>4945726500.568723</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>8718578769.253023</v>
+        <v>4987505446.350499</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>8757432020.807938</v>
+        <v>5029865199.270443</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>8797146054.808947</v>
+        <v>5072813361.398611</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>8837724323.21081</v>
+        <v>5116358169.515008</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>8879174499.479372</v>
+        <v>5160509471.734128</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>8921500257.984087</v>
+        <v>5205275245.721012</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>8964708401.34033</v>
+        <v>5250665139.983875</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>9008798834.804989</v>
+        <v>5296685945.423244</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>9053783670.650721</v>
+        <v>5343349923.180239</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>9099665530.381084</v>
+        <v>5390665758.456144</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>9146448408.906021</v>
+        <v>5438642170.930059</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>9194140567.200939</v>
+        <v>5487290321.551441</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>9242745792.155933</v>
+        <v>5536619348.078555</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>9292267703.380301</v>
+        <v>5586638711.593951</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>9342718385.116777</v>
+        <v>5637361407.398458</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>9394098921.4438</v>
+        <v>5688796118.59201</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>9446415306.909904</v>
+        <v>5740953178.780901</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>9499675816.130486</v>
+        <v>5793844903.003432</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>9553889511.40147</v>
+        <v>5847483169.822895</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>9609054790.19298</v>
+        <v>5901876105.423342</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>9665185061.025873</v>
+        <v>5957037982.571296</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>9722286997.960352</v>
+        <v>6012980543.61484</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>9780364331.426052</v>
+        <v>6069714345.286394</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>9839429694.004086</v>
+        <v>6127254326.255496</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>9899487097.823996</v>
+        <v>6185611014.122827</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>9960548078.981005</v>
+        <v>6244798943.813603</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>10022610729.44459</v>
+        <v>6304825529.740165</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>10085701836.36572</v>
+        <v>6365713936.896604</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>10149815841.76811</v>
+        <v>6427470357.718646</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>10214966064.49766</v>
+        <v>6490110075.312921</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>10281161214.25043</v>
+        <v>6553647784.661823</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>10348417811.97025</v>
+        <v>6618101004.753188</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>10416734741.10755</v>
+        <v>6683477867.191691</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>10486130947.20442</v>
+        <v>6749798687.168451</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>10556618477.47275</v>
+        <v>6817078651.030168</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>10628199658.21016</v>
+        <v>6885329150.255516</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>10700897417.15417</v>
+        <v>6954572233.517376</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>10774718803.52952</v>
+        <v>7024820873.574192</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>10849673466.55115</v>
+        <v>7096090891.704216</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>10925776007.84481</v>
+        <v>7168399492.147058</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>11003049935.42641</v>
+        <v>7241770272.071197</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>11081492039.45789</v>
+        <v>7316211050.427534</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>11161131524.21328</v>
+        <v>7391748737.630458</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>11241973507.39749</v>
+        <v>7468395787.193706</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>11324042247.32272</v>
+        <v>7546176555.243697</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>11407344516.92626</v>
+        <v>7625105305.304536</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>11491903376.83391</v>
+        <v>7705205717.111272</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>11577733479.72651</v>
+        <v>7786496590.43299</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>11664847470.43719</v>
+        <v>7868996238.212211</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>11753275859.80791</v>
+        <v>7952732583.170587</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>11843023394.9979</v>
+        <v>8037719354.285689</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>11934117872.36501</v>
+        <v>8123984348.915772</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>12026575361.78038</v>
+        <v>8211547587.165306</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>12120420551.14366</v>
+        <v>8300434981.789351</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>12215663732.14007</v>
+        <v>8390663631.652919</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>12312340131.8062</v>
+        <v>8482266349.54941</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>12410461014.85894</v>
+        <v>8575261374.695512</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>12510055448.72151</v>
+        <v>8669677535.694405</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>12611141018.98425</v>
+        <v>8765538237.943975</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>12713743881.63875</v>
+        <v>8862870283.251232</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>12817892589.53734</v>
+        <v>8961703531.850048</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>12923602809.32321</v>
+        <v>9062059884.901796</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>13030913190.10851</v>
+        <v>9163975246.232189</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>13139836668.07239</v>
+        <v>9267470037.710068</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>13250410424.15741</v>
+        <v>9372580025.519207</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>13362656855.07513</v>
+        <v>9479332641.519941</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>13476610663.99748</v>
+        <v>9587761608.529745</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>13592290825.702</v>
+        <v>9697893045.30991</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>13709739213.61477</v>
+        <v>9809765562.721533</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>13828974244.86352</v>
+        <v>9923405869.558031</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>13950035265.15002</v>
+        <v>10038851062.59795</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>14072951625.91249</v>
+        <v>10156134218.44089</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>14197753979.23965</v>
+        <v>10275289757.55108</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>14324477618.01647</v>
+        <v>10396354095.74591</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>14453161259.70192</v>
+        <v>10519366732.61062</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>14583834176.13921</v>
+        <v>10644361757.26944</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>14716529310.52427</v>
+        <v>10771375718.69011</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>14851293998.13786</v>
+        <v>10900454494.12792</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>14988150766.69348</v>
+        <v>11031627485.80172</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>15127151718.67071</v>
+        <v>11164944490.64969</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>15268323553.56409</v>
+        <v>11300440420.99252</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>15411710072.19309</v>
+        <v>11438159511.56683</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>15557355854.50331</v>
+        <v>11578147978.45545</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>15705295597.8784</v>
+        <v>11720445165.23005</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>15855572769.8494</v>
+        <v>11865097638.55717</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>16008227267.80533</v>
+        <v>12012149093.07889</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>16163308931.31472</v>
+        <v>12161651023.31199</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>16320852536.80703</v>
+        <v>12313644624.23418</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>16480914959.22114</v>
+        <v>12468185936.69199</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>16643526618.3989</v>
+        <v>12625312914.57956</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>16808745472.37996</v>
+        <v>12785085232.99928</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>16976610446.21307</v>
+        <v>12947547664.21044</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>17147172416.32958</v>
+        <v>13112755073.65928</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>17320481080.47852</v>
+        <v>13280759844.04805</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>17496580329.82914</v>
+        <v>13451613324.18445</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>17675521947.87979</v>
+        <v>13625371335.16163</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>17857358912.94058</v>
+        <v>13802090652.03814</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>18042134126.96589</v>
+        <v>13981822338.97993</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>18229907824.29786</v>
+        <v>14164630886.03263</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>18378728527.33764</v>
+        <v>14316865095.61204</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>18530158088.07479</v>
+        <v>14471759563.98367</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>18684227321.77209</v>
+        <v>14629353058.59614</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>18840982686.29308</v>
+        <v>14789698148.11239</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>19000479069.86346</v>
+        <v>14952850799.16682</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>19162754553.90581</v>
+        <v>15118860598.54612</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>19327861981.93238</v>
+        <v>15287782488.72652</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>19495839454.56807</v>
+        <v>15459663962.49917</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>19666741242.93896</v>
+        <v>15634564012.07458</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>19840610586.42121</v>
+        <v>15812534433.84594</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>20017495084.36243</v>
+        <v>15993631216.24924</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>20197445613.65517</v>
+        <v>16177909952.05336</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>20380502449.81122</v>
+        <v>16365422703.38929</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>20566714043.33154</v>
+        <v>16556225362.0773</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>20756139353.04362</v>
+        <v>16750381664.72449</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>20948809956.41653</v>
+        <v>16947938180.14136</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>21144783236.0915</v>
+        <v>17148959036.83849</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>21344102934.73732</v>
+        <v>17353497735.02635</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>21546811933.65645</v>
+        <v>17561610093.2845</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>21752960540.99484</v>
+        <v>17773355746.92005</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>21962595730.12732</v>
+        <v>17988792053.13741</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>22175761523.01302</v>
+        <v>18207976198.66681</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>22392504607.26989</v>
+        <v>18430965310.22158</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>22612863866.3298</v>
+        <v>18657814102.19159</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>22836887093.99118</v>
+        <v>18888581611.40501</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>23064618159.12258</v>
+        <v>19123323975.74881</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>23296098234.21679</v>
+        <v>19362097059.14102</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>23531368790.10883</v>
+        <v>19604957387.10571</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>23770469599.68061</v>
+        <v>19851959653.66173</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>24013441110.19122</v>
+        <v>20103158949.27737</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>24260317815.17301</v>
+        <v>20358607673.41747</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>24511138688.77882</v>
+        <v>20618358957.44984</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>24765940904.08421</v>
+        <v>20882467960.69143</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>25024755509.82196</v>
+        <v>21150983209.36884</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>25287620412.31691</v>
+        <v>21423959160.83301</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>25552248683.32997</v>
+        <v>21701439516.65786</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>25702856802.87893</v>
+        <v>21983474311.46701</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>25480109952.92923</v>
+        <v>22270111473.59522</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>24842308824.88412</v>
+        <v>22561396075.4139</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>23949680110.93818</v>
+        <v>22857368510.54039</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>22989786846.05774</v>
+        <v>23158075438.95289</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>22094195881.28185</v>
+        <v>23463557755.88091</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>21330698927.0401</v>
+        <v>23773848413.77282</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>20721411691.07494</v>
+        <v>24088987277.4963</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>20262236806.28321</v>
+        <v>24409008197.39275</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>19936713947.69643</v>
+        <v>24733944459.18851</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>19724327615.47578</v>
+        <v>25063822817.59396</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>19604850653.69885</v>
+        <v>25398676771.10758</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>19560273230.88168</v>
+        <v>25738524268.39918</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>19575432582.91182</v>
+        <v>26083393169.86525</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>19637980293.44439</v>
+        <v>26433297929.07847</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>19738079400.04892</v>
+        <v>26788262932.11671</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>19867973248.82389</v>
+        <v>27148295814.74891</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>20021618684.68959</v>
+        <v>27513408511.0187</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>20194316288.84067</v>
+        <v>27883609297.33124</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>20377366175.20214</v>
+        <v>28252237558.24673</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>20574779592.39345</v>
+        <v>28625875518.05784</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>20783970961.78767</v>
+        <v>29004511798.47777</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>21002956384.1267</v>
+        <v>29388148814.02362</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>21230175423.8219</v>
+        <v>29776774308.21891</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>21464419393.46944</v>
+        <v>30170375878.98737</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>21704732200.43507</v>
+        <v>30568937836.48104</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>21950353996.86554</v>
+        <v>30972436463.10552</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>22387465616.73063</v>
+        <v>31380852880.38902</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>22828617681.27486</v>
+        <v>31794155446.35386</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>23273755948.39845</v>
+        <v>32212315008.31975</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>23722825236.82148</v>
+        <v>32635293746.5169</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>24175765308.0652</v>
+        <v>33063054568.24771</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>24632509449.58846</v>
+        <v>33495550472.87371</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>25092992684.47689</v>
+        <v>33932739554.90983</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>25488872518.81372</v>
+        <v>34311275615.94281</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>25887859037.33412</v>
+        <v>34693710047.01417</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>26289882100.55161</v>
+        <v>35079984701.03564</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>26694864931.89561</v>
+        <v>35470041607.92789</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>27102736035.80226</v>
+        <v>35863819421.95392</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>27513414363.44593</v>
+        <v>36261253198.65592</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>27926700473.17002</v>
+        <v>36661753917.9136</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>28341177415.98854</v>
+        <v>37059539412.53351</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>28753157011.2072</v>
+        <v>37439963178.847</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>29158027391.33076</v>
+        <v>37786029627.05816</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>29723593789.34064</v>
+        <v>38248501347.11165</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>30276191186.15844</v>
+        <v>38663081437.5509</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>30815624171.83734</v>
+        <v>39034438671.38519</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>31343350105.5109</v>
+        <v>39371987029.84505</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>31861815418.16928</v>
+        <v>39687037668.88828</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>32373902218.21249</v>
+        <v>39990788747.08349</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>32882499956.84472</v>
+        <v>40293129463.90365</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>33390255321.68315</v>
+        <v>40602127424.00042</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>33899428765.21223</v>
+        <v>40923928959.86397</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>34411860099.41459</v>
+        <v>41262907721.21414</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>34647426947.33358</v>
+        <v>41350907286.61491</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>34888621844.1897</v>
+        <v>41459517835.48065</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>35136027200.60047</v>
+        <v>41589311658.61166</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>35389948319.4381</v>
+        <v>41740150283.40096</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>35650470081.68236</v>
+        <v>41911389420.18561</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>35917511302.45196</v>
+        <v>42102059353.30245</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>36190864298.14777</v>
+        <v>42310968237.61712</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>36470230550.70564</v>
+        <v>42536817898.42505</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>36755250392.02413</v>
+        <v>42778256839.89666</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>37045526423.59418</v>
+        <v>43033944505.7524</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>37059073432.43594</v>
+        <v>43026516527.02568</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>37077528105.75542</v>
+        <v>43030275038.11356</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>37100229873.91723</v>
+        <v>43043815128.81816</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>37126568391.98112</v>
+        <v>43065846124.30353</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>37155985970.01456</v>
+        <v>43095196316.36259</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>37187965160.03291</v>
+        <v>43130801430.94424</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>37221546615.01241</v>
+        <v>43170978926.05836</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>37250959955.4778</v>
+        <v>43206927683.84193</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>37262358611.45529</v>
+        <v>43217959749.48016</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>37240065395.67711</v>
+        <v>43180804749.84083</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>37256174267.87033</v>
+        <v>43162704112.26219</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>37226329784.06699</v>
+        <v>43079106625.66346</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>37156177133.70315</v>
+        <v>42937736369.7973</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>37054842777.851</v>
+        <v>42752189750.35725</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>36932857212.80331</v>
+        <v>42538008756.77411</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>36800324443.67045</v>
+        <v>42309999891.53535</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>36665920782.14003</v>
+        <v>42080788621.43114</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>36536504475.65292</v>
+        <v>41860271889.46875</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>36417107496.7328</v>
+        <v>41655635702.12622</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>36311128675.12446</v>
+        <v>41471652310.71738</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>36220611509.14794</v>
+        <v>41311117534.10187</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>36146531025.9474</v>
+        <v>41175270734.53644</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>36089060946.09605</v>
+        <v>41064203767.47379</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>36047800610.46935</v>
+        <v>40977185034.53514</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>36021959849.00923</v>
+        <v>40912934770.62276</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>36010489011.43826</v>
+        <v>40869824473.19932</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>36012204035.3005</v>
+        <v>40846037542.95029</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>35908503680.28889</v>
+        <v>40722343663.62629</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>35816234464.7584</v>
+        <v>40614753274.04393</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>35733908999.15395</v>
+        <v>40521189429.46349</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>35660132585.78481</v>
+        <v>40439699066.62561</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>35593609088.30091</v>
+        <v>40368473598.91166</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>35533153168.25697</v>
+        <v>40305848797.55344</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>35477681872.895</v>
+        <v>40250315556.94863</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>35426215601.1281</v>
+        <v>40200505607.68707</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>35377874520.79633</v>
+        <v>40155194217.1052</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>35331864584.77098</v>
+        <v>40113277072.78681</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>35287475466.59423</v>
+        <v>40073764413.76289</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>35244070311.22279</v>
+        <v>40035773081.47723</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>35201084434.77553</v>
+        <v>39998513422.63668</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>35158008999.67223</v>
+        <v>39961281985.72694</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>35114390929.57081</v>
+        <v>39923446930.32446</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>35069822386.16295</v>
+        <v>39884453675.72527</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>35023944987.84764</v>
+        <v>39843801211.8668</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>34976432285.53484</v>
+        <v>39801041014.13898</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>34926996439.10679</v>
+        <v>39755775050.90076</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>34875382362.59723</v>
+        <v>39707652282.57737</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>34821358461.65155</v>
+        <v>39656353770.18617</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>34764721172.0951</v>
+        <v>39601596863.70754</v>
       </c>
     </row>
     <row r="452">

--- a/Data/model_outputs_scenario_2/total_energy_use.xlsx
+++ b/Data/model_outputs_scenario_2/total_energy_use.xlsx
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2139526041.86859</v>
+        <v>2139526041.867881</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2142097914.686991</v>
+        <v>2142097914.686651</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2143942338.260793</v>
+        <v>2143942338.260453</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2145905736.913566</v>
+        <v>2145905736.913292</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2147978882.529763</v>
+        <v>2147978882.529421</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2150154224.376956</v>
+        <v>2150154224.376616</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2152424702.733198</v>
+        <v>2152424702.732857</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2154784410.039358</v>
+        <v>2154784410.039018</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2157227945.907773</v>
+        <v>2157227945.907433</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2159751222.042228</v>
+        <v>2159751222.041886</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2162349955.807718</v>
+        <v>2162349955.807378</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2165021243.927349</v>
+        <v>2165021243.927008</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2167761864.231871</v>
+        <v>2167761864.23153</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2170569453.038857</v>
+        <v>2170569453.038515</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2173441791.101225</v>
+        <v>2173441791.100885</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2176377184.191926</v>
+        <v>2176377184.191585</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2179374122.756116</v>
+        <v>2179374122.755774</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2182431511.866107</v>
+        <v>2182431511.865766</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2185548650.309197</v>
+        <v>2185548650.308856</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2188724510.197807</v>
+        <v>2188724510.197467</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2191958323.450936</v>
+        <v>2191958323.450595</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2195248978.190609</v>
+        <v>2195248978.190269</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2198596799.092504</v>
+        <v>2198596799.092161</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2202001589.231447</v>
+        <v>2202001589.231105</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2205463490.502785</v>
+        <v>2205463490.502442</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2208982371.227073</v>
+        <v>2208982371.226729</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2212558413.586568</v>
+        <v>2212558413.586227</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2216191652.774745</v>
+        <v>2216191652.774403</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2219882561.703291</v>
+        <v>2219882561.702949</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2223630946.461398</v>
+        <v>2223630946.461056</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2227437800.992536</v>
+        <v>2227437800.992194</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2231301418.624073</v>
+        <v>2231301418.62373</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2235224973.213418</v>
+        <v>2235224973.213076</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2239206789.579248</v>
+        <v>2239206789.578905</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2243250111.474703</v>
+        <v>2243250111.474361</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2247352396.291162</v>
+        <v>2247352396.290818</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2251516295.356815</v>
+        <v>2251516295.356474</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2255740800.341888</v>
+        <v>2255740800.341547</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2260028805.54682</v>
+        <v>2260028805.546479</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2264379568.94417</v>
+        <v>2264379568.943829</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2268795069.831059</v>
+        <v>2268795069.830718</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2273274337.160438</v>
+        <v>2273274337.160096</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2277819259.891344</v>
+        <v>2277819259.891004</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2282429786.712303</v>
+        <v>2282429786.711963</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2287108143.925932</v>
+        <v>2287108143.925591</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2291855055.130577</v>
+        <v>2291855055.130236</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2296670125.132672</v>
+        <v>2296670125.132332</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2301555053.005863</v>
+        <v>2301555053.005524</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2306509970.40515</v>
+        <v>2306509970.40481</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2311537170.028351</v>
+        <v>2311537170.028011</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2316637704.817971</v>
+        <v>2316637704.817632</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2321811153.48953</v>
+        <v>2321811153.489192</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2327058246.167996</v>
+        <v>2327058246.167656</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2332381328.200587</v>
+        <v>2332381328.200246</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2337782073.85403</v>
+        <v>2337782073.85369</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2343259558.214925</v>
+        <v>2343259558.214585</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2348815399.136883</v>
+        <v>2348815399.136541</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2354452422.471277</v>
+        <v>2354452422.470936</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2360169555.79668</v>
+        <v>2360169555.79634</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2365968395.442823</v>
+        <v>2365968395.442482</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2371850821.89049</v>
+        <v>2371850821.890146</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2377818612.072618</v>
+        <v>2377818612.072276</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2383870640.39083</v>
+        <v>2383870640.390485</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2390009770.285069</v>
+        <v>2390009770.284724</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2396237834.388535</v>
+        <v>2396237834.388189</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2402553321.830643</v>
+        <v>2402553321.830297</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2408959926.720694</v>
+        <v>2408959926.720346</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2415459273.310175</v>
+        <v>2415459273.30983</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2422049740.218425</v>
+        <v>2422049740.218075</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2428736437.768002</v>
+        <v>2428736437.767652</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2435516804.447958</v>
+        <v>2435516804.447608</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2442395301.818408</v>
+        <v>2442395301.818054</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2449372227.895644</v>
+        <v>2449372227.895293</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2456447835.425693</v>
+        <v>2456447835.425336</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2463624972.627228</v>
+        <v>2463624972.626872</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2470903880.050624</v>
+        <v>2470903880.050265</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2478287761.977693</v>
+        <v>2478287761.977334</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2485775968.665645</v>
+        <v>2485775968.665286</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2493372032.247406</v>
+        <v>2493372032.247044</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2501075718.939737</v>
+        <v>2501075718.939374</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2508889332.332716</v>
+        <v>2508889332.332355</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2516813310.345017</v>
+        <v>2516813310.344652</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2524851276.436495</v>
+        <v>2524851276.43613</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2533002824.300894</v>
+        <v>2533002824.300523</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2541271753.286829</v>
+        <v>2541271753.286455</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2549656438.740538</v>
+        <v>2549656438.740163</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2558161895.84574</v>
+        <v>2558161895.845364</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2566787222.717062</v>
+        <v>2566787222.716687</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2575536232.659854</v>
+        <v>2575536232.659474</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2584408001.475127</v>
+        <v>2584408001.474747</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2593406691.744878</v>
+        <v>2593406691.744498</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2602533076.907247</v>
+        <v>2602533076.906862</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2611788346.711464</v>
+        <v>2611788346.711077</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2621176617.28282</v>
+        <v>2621176617.282428</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2630695896.646787</v>
+        <v>2630695896.646394</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2640350250.011707</v>
+        <v>2640350250.011308</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2650142364.751352</v>
+        <v>2650142364.750956</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2660072896.860748</v>
+        <v>2660072896.860344</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2670143798.40632</v>
+        <v>2670143798.405918</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2680357948.407447</v>
+        <v>2680357948.407039</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2690715105.088033</v>
+        <v>2690715105.087629</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2701219306.561803</v>
+        <v>2701219306.561388</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2711873049.420057</v>
+        <v>2711873049.419642</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2722675200.549982</v>
+        <v>2722675200.549562</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2733631570.315687</v>
+        <v>2733631570.31526</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2744742255.984163</v>
+        <v>2744742255.983735</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2756009735.887812</v>
+        <v>2756009735.887384</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2767434804.146401</v>
+        <v>2767434804.145971</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2779021878.581501</v>
+        <v>2779021878.581067</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2790773134.910877</v>
+        <v>2790773134.910439</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2802688418.192833</v>
+        <v>2802688418.192393</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2814771564.640289</v>
+        <v>2814771564.639846</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2827026587.839605</v>
+        <v>2827026587.839161</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2839452795.94188</v>
+        <v>2839452795.941436</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2852052187.014485</v>
+        <v>2852052187.014033</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2864829675.25618</v>
+        <v>2864829675.255721</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2877787695.977056</v>
+        <v>2877787695.976595</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2890927333.839855</v>
+        <v>2890927333.839394</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2904250068.774662</v>
+        <v>2904250068.774197</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2917760158.826776</v>
+        <v>2917760158.826308</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2931459553.53048</v>
+        <v>2931459553.530014</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2945352710.094906</v>
+        <v>2945352710.094444</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2959437228.402859</v>
+        <v>2959437228.402382</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>2973722137.247392</v>
+        <v>2973722137.246912</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2988205531.816839</v>
+        <v>2988205531.816367</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3002892936.090302</v>
+        <v>3002892936.089828</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3017783451.976906</v>
+        <v>3017783451.976419</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3032884253.115394</v>
+        <v>3032884253.114904</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3048194950.387314</v>
+        <v>3048194950.386828</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3063720610.448123</v>
+        <v>3063720610.447634</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3079460870.256594</v>
+        <v>3079460870.256104</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3095423294.419376</v>
+        <v>3095423294.418878</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3111607028.031505</v>
+        <v>3111607028.031006</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3128017320.979705</v>
+        <v>3128017320.979201</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3144654804.190224</v>
+        <v>3144654804.189718</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3161527177.342176</v>
+        <v>3161527177.341676</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3178631307.987397</v>
+        <v>3178631307.986887</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3195975582.971251</v>
+        <v>3195975582.970736</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3213560766.0699</v>
+        <v>3213560766.069386</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3231391704.877385</v>
+        <v>3231391704.876885</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3249466740.547135</v>
+        <v>3249466740.546624</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3267797404.102962</v>
+        <v>3267797404.102442</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3286380693.974748</v>
+        <v>3286380693.974233</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3305222521.362089</v>
+        <v>3305222521.361571</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3324325355.453869</v>
+        <v>3324325355.453341</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>3343696030.509551</v>
+        <v>3343696249.509029</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3363331806.199879</v>
+        <v>3363331806.199347</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>3383243253.998585</v>
+        <v>3383243253.998053</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3403428636.946932</v>
+        <v>3403428636.946407</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3423894646.986347</v>
+        <v>3423894646.985821</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3444643836.415153</v>
+        <v>3444643836.414625</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3465681267.692554</v>
+        <v>3465681486.692019</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3487009280.933312</v>
+        <v>3487009280.932773</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3508634544.213119</v>
+        <v>3508634325.212581</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3530556081.013491</v>
+        <v>3530556081.012963</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3552781184.174569</v>
+        <v>3552781403.174032</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3575312609.986283</v>
+        <v>3575312609.985745</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3598158127.590591</v>
+        <v>3598158127.590056</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>3621318691.211617</v>
+        <v>3621318691.211077</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3644799838.185056</v>
+        <v>3644799838.184513</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>3668604807.04778</v>
+        <v>3668604807.047249</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3692739696.391671</v>
+        <v>3692739696.391133</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>3717208618.857799</v>
+        <v>3717208618.857264</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>3742014301.826403</v>
+        <v>3742014301.82587</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>3767162409.444612</v>
+        <v>3767162409.444066</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3792659895.78921</v>
+        <v>3792659895.788677</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3818505905.528387</v>
+        <v>3818505905.527844</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3844712216.438004</v>
+        <v>3844712216.437458</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>3871277772.242587</v>
+        <v>3871277772.242057</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3898212640.375989</v>
+        <v>3898212421.375449</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>3925515148.94544</v>
+        <v>3925515148.943637</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3953199312.960942</v>
+        <v>3953199312.960404</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>3981260249.368802</v>
+        <v>3981260249.368247</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4009712807.551022</v>
+        <v>4009712807.550468</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4038553334.945908</v>
+        <v>4038553334.945349</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4067797290.805941</v>
+        <v>4067797290.805398</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>4097438541.270284</v>
+        <v>4097438541.269732</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>4127493779.688363</v>
+        <v>4127493779.687808</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>4157958936.954741</v>
+        <v>4157958936.954205</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4188849133.287833</v>
+        <v>4188849133.287293</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>4220160432.087076</v>
+        <v>4220160432.086514</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>4251909402.761743</v>
+        <v>4251909402.761179</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>4284090274.032903</v>
+        <v>4284090274.032336</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>4316720740.710213</v>
+        <v>4316720740.709641</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>4349797672.842723</v>
+        <v>4349797672.842151</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>4383334101.613087</v>
+        <v>4383334101.612535</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>4417329931.840367</v>
+        <v>4417329931.839799</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>4451799247.885956</v>
+        <v>4451799247.885386</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>4486740543.991501</v>
+        <v>4486740543.990931</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>4522168254.925788</v>
+        <v>4522168254.925216</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>4558081632.611065</v>
+        <v>4558081632.610518</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>4594494324.483061</v>
+        <v>4594494543.482493</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>4631407312.677647</v>
+        <v>4631407312.677069</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>4668834015.067895</v>
+        <v>4668834015.067311</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>4706776844.459642</v>
+        <v>4706776844.45906</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>4745244131.795829</v>
+        <v>4745244131.795236</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>4784244551.964924</v>
+        <v>4784244551.964329</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>4823786103.464449</v>
+        <v>4823786103.463861</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>4863873086.459952</v>
+        <v>4863873086.459342</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>4904517928.598398</v>
+        <v>4904517928.597817</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>4945726500.568723</v>
+        <v>4945726500.568105</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>4987505446.350499</v>
+        <v>4987505446.34991</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>5029865199.270443</v>
+        <v>5029865199.269847</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>5072813361.398611</v>
+        <v>5072813361.398007</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>5116358169.515008</v>
+        <v>5116358169.514381</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>5160509471.734128</v>
+        <v>5160509471.733511</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>5205275245.721012</v>
+        <v>5205275245.720398</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>5250665139.983875</v>
+        <v>5250665139.983247</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>5296685945.423244</v>
+        <v>5296685945.422638</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>5343349923.180239</v>
+        <v>5343349923.179615</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>5390665758.456144</v>
+        <v>5390665758.455588</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>5438642170.930059</v>
+        <v>5438642170.929442</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>5487290321.551441</v>
+        <v>5487290321.550796</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>5536619348.078555</v>
+        <v>5536619348.077905</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>5586638711.593951</v>
+        <v>5586638711.593306</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>5637361407.398458</v>
+        <v>5637361407.397797</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>5688796118.59201</v>
+        <v>5688796118.591333</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>5740953178.780901</v>
+        <v>5740953178.780228</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>5793844903.003432</v>
+        <v>5793844903.002741</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>5847483169.822895</v>
+        <v>5847483169.822227</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>5901876105.423342</v>
+        <v>5901876105.422664</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>5957037982.571296</v>
+        <v>5957037982.570632</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>6012980543.61484</v>
+        <v>6012980543.614153</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>6069714345.286394</v>
+        <v>6069714345.285704</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>6127254326.255496</v>
+        <v>6127254326.254789</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>6185611014.122827</v>
+        <v>6185611014.122116</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>6244798943.813603</v>
+        <v>6244798943.812881</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>6304825529.740165</v>
+        <v>6304825529.739448</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>6365713936.896604</v>
+        <v>6365713936.895885</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>6427470357.718646</v>
+        <v>6427470357.717935</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>6490110075.312921</v>
+        <v>6490110075.312228</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>6553647784.661823</v>
+        <v>6553647784.661074</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>6618101004.753188</v>
+        <v>6618101004.752472</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>6683477867.191691</v>
+        <v>6683477867.19094</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>6749798687.168451</v>
+        <v>6749798687.167715</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>6817078651.030168</v>
+        <v>6817078651.029455</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>6885329150.255516</v>
+        <v>6885329150.254752</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>6954572233.517376</v>
+        <v>6954572233.516628</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>7024820873.574192</v>
+        <v>7024820873.573438</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>7096090891.704216</v>
+        <v>7096090891.70348</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>7168399492.147058</v>
+        <v>7168399492.146334</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>7241770272.071197</v>
+        <v>7241770272.070429</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>7316211050.427534</v>
+        <v>7316210777.42677</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>7391748737.630458</v>
+        <v>7391748464.629688</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>7468395787.193706</v>
+        <v>7468396179.018666</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>7546176555.243697</v>
+        <v>7546176639.771365</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>7625105305.304536</v>
+        <v>7625105371.538465</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>7705205717.111272</v>
+        <v>7705205726.035789</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>7786496590.43299</v>
+        <v>7786496581.658361</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>7868996238.212211</v>
+        <v>7868996246.831223</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>7952732583.170587</v>
+        <v>7952732847.70627</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>8037719354.285689</v>
+        <v>8037719635.590069</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>8123984348.915772</v>
+        <v>8123984209.177862</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>8211547587.165306</v>
+        <v>8211548062.32815</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>8300434981.789351</v>
+        <v>8300435058.12916</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>8390663631.652919</v>
+        <v>8390663410.923698</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>8482266349.54941</v>
+        <v>8482266088.287399</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>8575261374.695512</v>
+        <v>8575262316.15881</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>8669677535.694405</v>
+        <v>8669677506.364832</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>8765538237.943975</v>
+        <v>8765538150.288704</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>8862870283.251232</v>
+        <v>8862870879.529587</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>8961703531.850048</v>
+        <v>8961703291.918318</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>9062059884.901796</v>
+        <v>9062060894.339556</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>9163975246.232189</v>
+        <v>9163975388.879868</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>9267470037.710068</v>
+        <v>9267469590.693384</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>9372580025.519207</v>
+        <v>9372579109.289906</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>9479332641.519941</v>
+        <v>9479334408.112638</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>9587761608.529745</v>
+        <v>9587760740.858318</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>9697893045.30991</v>
+        <v>9697893705.723812</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>9809765562.721533</v>
+        <v>9809765818.575468</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>9923405869.558031</v>
+        <v>9923405434.852463</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>10038851062.59795</v>
+        <v>10038850471.65497</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>10156134218.44089</v>
+        <v>10156134225.6804</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>10275289757.55108</v>
+        <v>10275289778.49816</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>10396354095.74591</v>
+        <v>10396354499.94034</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>10519366732.61062</v>
+        <v>10519366636.60379</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>10644361757.26944</v>
+        <v>10644361975.41547</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>10771375718.69011</v>
+        <v>10771376677.08203</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>10900454494.12792</v>
+        <v>10900453752.52991</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>11031627485.80172</v>
+        <v>11031628007.34473</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>11164944490.64969</v>
+        <v>11164943081.68427</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>11300440420.99252</v>
+        <v>11300440490.05922</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>11438159511.56683</v>
+        <v>11438160467.50107</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>11578147978.45545</v>
+        <v>11578147382.02079</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>11720445165.23005</v>
+        <v>11720443896.48683</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>11865097638.55717</v>
+        <v>11865097990.8717</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>12012149093.07889</v>
+        <v>12012148405.32099</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>12161651023.31199</v>
+        <v>12161650858.72044</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>12313644624.23418</v>
+        <v>12313644576.81002</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>12468185936.69199</v>
+        <v>12468184612.09236</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>12625312914.57956</v>
+        <v>12625313135.96531</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>12785085232.99928</v>
+        <v>12785084213.69683</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>12947547664.21044</v>
+        <v>12947546949.06526</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>13112755073.65928</v>
+        <v>13112755006.28713</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>13280759844.04805</v>
+        <v>13280759427.52835</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>13451613324.18445</v>
+        <v>13451612751.40828</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>13625371335.16163</v>
+        <v>13625371560.48715</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>13802090652.03814</v>
+        <v>13802090239.59151</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>13981822338.97993</v>
+        <v>13981822452.11442</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>14164630886.03263</v>
+        <v>14164631196.56523</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>14316865095.61204</v>
+        <v>14316863711.64583</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>14471759563.98367</v>
+        <v>14471759096.60291</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>14629353058.59614</v>
+        <v>14629351274.20739</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>14789698148.11239</v>
+        <v>14789699253.58105</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>14952850799.16682</v>
+        <v>14952851767.7606</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>15118860598.54612</v>
+        <v>15118860255.4262</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>15287782488.72652</v>
+        <v>15287782107.53182</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>15459663962.49917</v>
+        <v>15459664008.35736</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>15634564012.07458</v>
+        <v>15634562483.64396</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>15812534433.84594</v>
+        <v>15812533829.2529</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>15993631216.24924</v>
+        <v>15993630393.87836</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>16177909952.05336</v>
+        <v>16177908196.80506</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>16365422703.38929</v>
+        <v>16365422066.82026</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>16556225362.0773</v>
+        <v>16556225493.08934</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>16750381664.72449</v>
+        <v>16750381724.2798</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>16947938180.14136</v>
+        <v>16947938243.12402</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>17148959036.83849</v>
+        <v>17148959107.25958</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>17353497735.02635</v>
+        <v>17353498554.05305</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>17561610093.2845</v>
+        <v>17561610155.63099</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>17773355746.92005</v>
+        <v>17773356652.74441</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>17988792053.13741</v>
+        <v>17988792691.47807</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>18207976198.66681</v>
+        <v>18207976642.38329</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>18430965310.22158</v>
+        <v>18430965495.33099</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>18657814102.19159</v>
+        <v>18657814414.17842</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>18888581611.40501</v>
+        <v>18888582365.54534</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>19123323975.74881</v>
+        <v>19123324554.51118</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>19362097059.14102</v>
+        <v>19362098216.10961</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>19604957387.10571</v>
+        <v>19604958114.73415</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>19851959653.66173</v>
+        <v>19851959149.42004</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>20103158949.27737</v>
+        <v>20103158602.56427</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>20358607673.41747</v>
+        <v>20358607283.28131</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>20618358957.44984</v>
+        <v>20618359220.39825</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>20882467960.69143</v>
+        <v>20882467669.37646</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>21150983209.36884</v>
+        <v>21150983460.58422</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>21423959160.83301</v>
+        <v>21423958287.31453</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>21701439516.65786</v>
+        <v>21701437921.68363</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>21983474311.46701</v>
+        <v>21983472876.69705</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>22270111473.59522</v>
+        <v>22270109874.43975</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>22561396075.4139</v>
+        <v>22561397354.00482</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>22857368510.54039</v>
+        <v>22857369480.17874</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>23158075438.95289</v>
+        <v>23158075914.90676</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>23463557755.88091</v>
+        <v>23463556726.78447</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>23773848413.77282</v>
+        <v>23773847501.84834</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>24088987277.4963</v>
+        <v>24088987958.08132</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>24409008197.39275</v>
+        <v>24409009506.84075</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>24733944459.18851</v>
+        <v>24733944820.47403</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>25063822817.59396</v>
+        <v>25063822899.71284</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>25398676771.10758</v>
+        <v>25398677705.13786</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>25738524268.39918</v>
+        <v>25738523996.01218</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>26083393169.86525</v>
+        <v>26083392571.84414</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>26433297929.07847</v>
+        <v>26433299189.19766</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>26788262932.11671</v>
+        <v>26788264008.10201</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>27148295814.74891</v>
+        <v>27148295735.13385</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>27513408511.0187</v>
+        <v>27513408254.84178</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>27883609297.33124</v>
+        <v>27883609830.10247</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>28252237558.24673</v>
+        <v>28252237143.84949</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>28625875518.05784</v>
+        <v>28625872676.27787</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>29004511798.47777</v>
+        <v>29004512618.84589</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>29388148814.02362</v>
+        <v>29388149043.1032</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>29776774308.21891</v>
+        <v>29776773599.16148</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>30170375878.98737</v>
+        <v>30170376861.52858</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>30568937836.48104</v>
+        <v>30568935922.36976</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>30972436463.10552</v>
+        <v>30972436229.72393</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>31380852880.38902</v>
+        <v>31380851209.78296</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>31794155446.35386</v>
+        <v>31794153763.13794</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>32212315008.31975</v>
+        <v>32212314277.18306</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>32635293746.5169</v>
+        <v>32635293212.7509</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>33063054568.24771</v>
+        <v>33063052516.66823</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>33495550472.87371</v>
+        <v>33495550249.97721</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>33932739554.90983</v>
+        <v>33932737535.52141</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>34311275615.94281</v>
+        <v>34311275244.36022</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>34693710047.01417</v>
+        <v>34693709022.62415</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>35079984701.03564</v>
+        <v>35079984474.49426</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>35470041607.92789</v>
+        <v>35470040024.23499</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>35863819421.95392</v>
+        <v>35863819668.36905</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>36261253198.65592</v>
+        <v>36261252471.47424</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>36661753917.9136</v>
+        <v>36661752475.34726</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>37059539412.53351</v>
+        <v>37059538277.78282</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>37439963178.847</v>
+        <v>37439963133.43788</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>37786029627.05816</v>
+        <v>37786027852.40491</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>38248501347.11165</v>
+        <v>38248500383.4314</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>38663081437.5509</v>
+        <v>38663080078.11976</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>39034438671.38519</v>
+        <v>39034439349.02518</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>39371987029.84505</v>
+        <v>39371984665.40553</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>39687037668.88828</v>
+        <v>39687038906.12798</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>39990788747.08349</v>
+        <v>39990789659.86719</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>40293129463.90365</v>
+        <v>40293130985.01169</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>40602127424.00042</v>
+        <v>40602127363.28102</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>40923928959.86397</v>
+        <v>40923928250.11492</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>41262907721.21414</v>
+        <v>41262905797.03842</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>41350907286.61491</v>
+        <v>41350906069.63895</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>41459517835.48065</v>
+        <v>41459516900.65813</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>41589311658.61166</v>
+        <v>41589313786.43884</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>41740150283.40096</v>
+        <v>41740149843.75748</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>41911389420.18561</v>
+        <v>41911388609.36565</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>42102059353.30245</v>
+        <v>42102057791.90857</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>42310968237.61712</v>
+        <v>42310968364.62311</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>42536817898.42505</v>
+        <v>42536817165.60336</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>42778256839.89666</v>
+        <v>42778257234.99389</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>43033944505.7524</v>
+        <v>43033944136.3674</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>43026516527.02568</v>
+        <v>43026516140.69958</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>43030275038.11356</v>
+        <v>43030276365.51846</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>43043815128.81816</v>
+        <v>43043815627.36494</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>43065846124.30353</v>
+        <v>43065845101.43562</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>43095196316.36259</v>
+        <v>43095195417.2234</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>43130801430.94424</v>
+        <v>43130799822.24104</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>43170978926.05836</v>
+        <v>43170978078.26647</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>43206927683.84193</v>
+        <v>43206926370.98853</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>43217959749.48016</v>
+        <v>43217961115.90331</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>43180804749.84083</v>
+        <v>43180805487.08382</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>43162704112.26219</v>
+        <v>43162703748.58868</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>43079106625.66346</v>
+        <v>43079106982.05361</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>42937736369.7973</v>
+        <v>42937735345.03699</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>42752189750.35725</v>
+        <v>42752187915.21954</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>42538008756.77411</v>
+        <v>42538007324.66345</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>42309999891.53535</v>
+        <v>42309998429.03413</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>42080788621.43114</v>
+        <v>42080788213.90662</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>41860271889.46875</v>
+        <v>41860272063.47991</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>41655635702.12622</v>
+        <v>41655634423.17261</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>41471652310.71738</v>
+        <v>41471652283.84731</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>41311117534.10187</v>
+        <v>41311117951.52986</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>41175270734.53644</v>
+        <v>41175271451.05219</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>41064203767.47379</v>
+        <v>41064204127.93819</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>40977185034.53514</v>
+        <v>40977185234.11461</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>40912934770.62276</v>
+        <v>40912934470.83024</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>40869824473.19932</v>
+        <v>40869823903.72462</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>40846037542.95029</v>
+        <v>40846038015.0344</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>40722343663.62629</v>
+        <v>40722343917.76806</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>40614753274.04393</v>
+        <v>40614753461.285</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>40521189429.46349</v>
+        <v>40521190286.8286</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>40439699066.62561</v>
+        <v>40439700389.01334</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>40368473598.91166</v>
+        <v>40368473662.10871</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>40305848797.55344</v>
+        <v>40305847579.55827</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>40250315556.94863</v>
+        <v>40250315181.18103</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>40200505607.68707</v>
+        <v>40200505929.97043</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>40155194217.1052</v>
+        <v>40155193661.79963</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>40113277072.78681</v>
+        <v>40113277660.56847</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>40073764413.76289</v>
+        <v>40073765092.24642</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>40035773081.47723</v>
+        <v>40035773475.62238</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>39998513422.63668</v>
+        <v>39998514434.47344</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>39961281985.72694</v>
+        <v>39961283130.47934</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>39923446930.32446</v>
+        <v>39923448002.74308</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>39884453675.72527</v>
+        <v>39884454971.5965</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>39843801211.8668</v>
+        <v>39843802123.64966</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>39801041014.13898</v>
+        <v>39801041117.35217</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>39755775050.90076</v>
+        <v>39755775170.04884</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>39707652282.57737</v>
+        <v>39707652623.33183</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>39656353770.18617</v>
+        <v>39656354315.82146</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>39601596863.70754</v>
+        <v>39601596284.68459</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>247174817.7968289</v>
+        <v>247174817.809567</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_scenario_2/total_energy_use.xlsx
+++ b/Data/model_outputs_scenario_2/total_energy_use.xlsx
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2516813310.344652</v>
+        <v>2516813310.344653</v>
       </c>
     </row>
     <row r="85">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2593406691.744498</v>
+        <v>2593406691.744499</v>
       </c>
     </row>
     <row r="94">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2621176617.282428</v>
+        <v>2621176617.282427</v>
       </c>
     </row>
     <row r="97">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2660072896.860344</v>
+        <v>2660072896.860345</v>
       </c>
     </row>
     <row r="101">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2733631570.31526</v>
+        <v>2733631570.315259</v>
       </c>
     </row>
     <row r="108">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2756009735.887384</v>
+        <v>2756009735.887385</v>
       </c>
     </row>
     <row r="110">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2839452795.941436</v>
+        <v>2839452795.941435</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2852052187.014033</v>
+        <v>2852052187.014032</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2864829675.255721</v>
+        <v>2864829675.255722</v>
       </c>
     </row>
     <row r="119">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2917760158.826308</v>
+        <v>2917760158.826309</v>
       </c>
     </row>
     <row r="123">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2945352710.094444</v>
+        <v>2945352710.094445</v>
       </c>
     </row>
     <row r="125">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3161527177.341676</v>
+        <v>3161527177.341675</v>
       </c>
     </row>
     <row r="139">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3267797404.102442</v>
+        <v>3267797404.102441</v>
       </c>
     </row>
     <row r="145">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3692739696.391133</v>
+        <v>3692739696.391132</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>3717208618.857264</v>
+        <v>3717208618.857263</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>3742014301.82587</v>
+        <v>3742014301.825871</v>
       </c>
     </row>
     <row r="167">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>3871277772.242057</v>
+        <v>3871277772.242056</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3898212421.375449</v>
+        <v>3898212421.37545</v>
       </c>
     </row>
     <row r="173">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3953199312.960404</v>
+        <v>3953199312.960405</v>
       </c>
     </row>
     <row r="175">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4009712807.550468</v>
+        <v>4009712807.550467</v>
       </c>
     </row>
     <row r="177">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>4097438541.269732</v>
+        <v>4097438541.269733</v>
       </c>
     </row>
     <row r="180">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>4349797672.842151</v>
+        <v>4349797672.842152</v>
       </c>
     </row>
     <row r="188">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>4745244131.795236</v>
+        <v>4745244131.795235</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>4784244551.964329</v>
+        <v>4784244551.96433</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>4823786103.463861</v>
+        <v>4823786103.463862</v>
       </c>
     </row>
     <row r="201">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>4904517928.597817</v>
+        <v>4904517928.597816</v>
       </c>
     </row>
     <row r="203">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>4987505446.34991</v>
+        <v>4987505446.349909</v>
       </c>
     </row>
     <row r="205">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>5116358169.514381</v>
+        <v>5116358169.514382</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>5160509471.733511</v>
+        <v>5160509471.733512</v>
       </c>
     </row>
     <row r="209">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>5438642170.929442</v>
+        <v>5438642170.929443</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>5487290321.550796</v>
+        <v>5487290321.550797</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>5536619348.077905</v>
+        <v>5536619348.077907</v>
       </c>
     </row>
     <row r="217">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>5740953178.780228</v>
+        <v>5740953178.780229</v>
       </c>
     </row>
     <row r="221">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>5957037982.570632</v>
+        <v>5957037982.570631</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>6012980543.614153</v>
+        <v>6012980543.614154</v>
       </c>
     </row>
     <row r="226">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>6127254326.254789</v>
+        <v>6127254326.254788</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>6185611014.122116</v>
+        <v>6185611014.122115</v>
       </c>
     </row>
     <row r="229">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>6427470357.717935</v>
+        <v>6427470357.717936</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>6490110075.312228</v>
+        <v>6490110075.312227</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>6553647784.661074</v>
+        <v>6553647784.661072</v>
       </c>
     </row>
     <row r="235">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>6817078651.029455</v>
+        <v>6817078651.029456</v>
       </c>
     </row>
     <row r="239">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>7096090891.70348</v>
+        <v>7096090891.703481</v>
       </c>
     </row>
     <row r="243">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>7241770272.070429</v>
+        <v>7241770272.070431</v>
       </c>
     </row>
     <row r="245">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>7952732847.70627</v>
+        <v>7952732847.706272</v>
       </c>
     </row>
     <row r="254">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>8211548062.32815</v>
+        <v>8211548062.328149</v>
       </c>
     </row>
     <row r="257">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>11865097990.8717</v>
+        <v>11865098263.8717</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>12012148405.32099</v>
+        <v>12012148678.32099</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>12161650858.72044</v>
+        <v>12161650746.93342</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>12313644576.81002</v>
+        <v>12313644759.3077</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>12468184612.09236</v>
+        <v>12468184436.00519</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>12625313135.96531</v>
+        <v>12625313305.78364</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>12785084213.69683</v>
+        <v>12785084269.00466</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>12947546949.06526</v>
+        <v>12947547106.77472</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>13112755006.28713</v>
+        <v>13112754854.41641</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>13280759427.52835</v>
+        <v>13280759573.70462</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>13451612751.40828</v>
+        <v>13451612610.78211</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>13625371560.48715</v>
+        <v>13625371422.70746</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>13802090239.59151</v>
+        <v>13802090320.81182</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>13981822452.11442</v>
+        <v>13981822342.64289</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>14164631196.56523</v>
+        <v>14164631118.46535</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>14316863711.64583</v>
+        <v>14316864022.23799</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>14471759096.60291</v>
+        <v>14471758822.56996</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>14629351274.20739</v>
+        <v>14629351910.76994</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>14789699253.58105</v>
+        <v>14789699107.743</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>14952851767.7606</v>
+        <v>14952851830.18804</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>15118860255.4262</v>
+        <v>15118860373.53815</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>15287782107.53182</v>
+        <v>15287782708.8465</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>15459664008.35736</v>
+        <v>15459663664.7162</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>15634562483.64396</v>
+        <v>15634562670.35926</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>15812533829.2529</v>
+        <v>15812533756.81481</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>15993630393.87836</v>
+        <v>15993630490.37586</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>16177908196.80506</v>
+        <v>16177908641.2563</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>16365422066.82026</v>
+        <v>16365422054.8444</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>16556225493.08934</v>
+        <v>16556224840.03499</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>16750381724.2798</v>
+        <v>16750380953.05106</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>16947938243.12402</v>
+        <v>16947939264.0664</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>17148959107.25958</v>
+        <v>17148958971.85581</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>17353498554.05305</v>
+        <v>17353498493.48307</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>17561610155.63099</v>
+        <v>17561610024.51019</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>17773356652.74441</v>
+        <v>17773357062.65211</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>17988792691.47807</v>
+        <v>17988792211.83353</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>18207976642.38329</v>
+        <v>18207977259.0825</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>18430965495.33099</v>
+        <v>18430964979.34623</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>18657814414.17842</v>
+        <v>18657813755.80597</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>18888582365.54534</v>
+        <v>18888581890.00871</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>19123324554.51118</v>
+        <v>19123324534.73304</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>19362098216.10961</v>
+        <v>19362098698.70191</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>19604958114.73415</v>
+        <v>19604958218.91107</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>19851959149.42004</v>
+        <v>19851958709.60407</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>20103158602.56427</v>
+        <v>20103158038.04132</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>20358607283.28131</v>
+        <v>20358608186.61438</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>20618359220.39825</v>
+        <v>20618359178.93896</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>20882467669.37646</v>
+        <v>20882467544.79372</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>21150983460.58422</v>
+        <v>21150984494.05699</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>21423958287.31453</v>
+        <v>21423957818.63329</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>21701437921.68363</v>
+        <v>21701437198.10127</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>21983472876.69705</v>
+        <v>21983473061.26176</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>22270109874.43975</v>
+        <v>22270110520.28907</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>22561397354.00482</v>
+        <v>22561396954.03656</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>22857369480.17874</v>
+        <v>22857369693.0743</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>23158075914.90676</v>
+        <v>23158075789.45019</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>23463556726.78447</v>
+        <v>23463556992.09863</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>23773847501.84834</v>
+        <v>23773847397.8006</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>24088987958.08132</v>
+        <v>24088988203.41439</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>24409009506.84075</v>
+        <v>24409010389.34207</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>24733944820.47403</v>
+        <v>24733944806.7261</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>25063822899.71284</v>
+        <v>25063822471.7638</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>25398677705.13786</v>
+        <v>25398676926.13123</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>25738523996.01218</v>
+        <v>25738523516.5432</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>26083392571.84414</v>
+        <v>26083392952.99095</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>26433299189.19766</v>
+        <v>26433299039.20646</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>26788264008.10201</v>
+        <v>26788264658.42826</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>27148295735.13385</v>
+        <v>27148295393.55328</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>27513408254.84178</v>
+        <v>27513408105.71828</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>27883609830.10247</v>
+        <v>27883609502.80704</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>28252237143.84949</v>
+        <v>28252237483.44345</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>28625872676.27787</v>
+        <v>28625873045.92301</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>29004512618.84589</v>
+        <v>29004513174.3701</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>29388149043.1032</v>
+        <v>29388148741.06938</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>29776773599.16148</v>
+        <v>29776774963.88937</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>30170376861.52858</v>
+        <v>30170376758.79807</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>30568935922.36976</v>
+        <v>30568936589.14769</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>30972436229.72393</v>
+        <v>30972435918.0268</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>31380851209.78296</v>
+        <v>31380851368.29845</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>31794153763.13794</v>
+        <v>31794154005.10738</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>32212314277.18306</v>
+        <v>32212313744.15012</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>32635293212.7509</v>
+        <v>32635293070.98735</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>33063052516.66823</v>
+        <v>33063052246.78645</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>33495550249.97721</v>
+        <v>33495549684.52303</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>33932737535.52141</v>
+        <v>33932737851.49437</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>34311275244.36022</v>
+        <v>34311274992.67869</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>34693709022.62415</v>
+        <v>34693708477.76315</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>35079984474.49426</v>
+        <v>35079984510.87445</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>35470040024.23499</v>
+        <v>35470040104.77635</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>35863819668.36905</v>
+        <v>35863819973.71926</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>36261252471.47424</v>
+        <v>36261251844.17844</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>36661752475.34726</v>
+        <v>36661752269.88576</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>37059538277.78282</v>
+        <v>37059537772.54489</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>37439963133.43788</v>
+        <v>37439963097.87701</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>37786027852.40491</v>
+        <v>37786028734.26409</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>38248500383.4314</v>
+        <v>38248500569.85597</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>38663080078.11976</v>
+        <v>38663080733.44106</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>39034439349.02518</v>
+        <v>39034440021.54736</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>39371984665.40553</v>
+        <v>39371983734.04821</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>39687038906.12798</v>
+        <v>39687037747.25678</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>39990789659.86719</v>
+        <v>39990789760.66665</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>40293130985.01169</v>
+        <v>40293130720.884</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>40602127363.28102</v>
+        <v>40602127129.7336</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>40923928250.11492</v>
+        <v>40923927230.72258</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>41262905797.03842</v>
+        <v>41262905625.49064</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>41350906069.63895</v>
+        <v>41350906342.75491</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>41459516900.65813</v>
+        <v>41459516760.15407</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>41589313786.43884</v>
+        <v>41589312365.20514</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>41740149843.75748</v>
+        <v>41740148983.3849</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>41911388609.36565</v>
+        <v>41911388713.77376</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>42102057791.90857</v>
+        <v>42102057913.30067</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>42310968364.62311</v>
+        <v>42310968014.13261</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>42536817165.60336</v>
+        <v>42536817514.53531</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>42778257234.99389</v>
+        <v>42778256692.66819</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>43033944136.3674</v>
+        <v>43033943499.91469</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>43026516140.69958</v>
+        <v>43026516783.0551</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>43030276365.51846</v>
+        <v>43030275658.08698</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>43043815627.36494</v>
+        <v>43043815813.53926</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>43065845101.43562</v>
+        <v>43065845191.97565</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>43095195417.2234</v>
+        <v>43095194779.29368</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>43130799822.24104</v>
+        <v>43130799159.4201</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>43170978078.26647</v>
+        <v>43170978046.77158</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>43206926370.98853</v>
+        <v>43206925217.41183</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>43217961115.90331</v>
+        <v>43217960046.88335</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>43180805487.08382</v>
+        <v>43180805388.10742</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>43162703748.58868</v>
+        <v>43162703148.14878</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>43079106982.05361</v>
+        <v>43079106100.304</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>42937735345.03699</v>
+        <v>42937734894.92168</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>42752187915.21954</v>
+        <v>42752188818.08441</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>42538007324.66345</v>
+        <v>42538007521.81928</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>42309998429.03413</v>
+        <v>42309999047.13618</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>42080788213.90662</v>
+        <v>42080788122.3366</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>41860272063.47991</v>
+        <v>41860271107.14691</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>41655634423.17261</v>
+        <v>41655634340.06641</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>41471652283.84731</v>
+        <v>41471652427.00985</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>41311117951.52986</v>
+        <v>41311117683.96626</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>41175271451.05219</v>
+        <v>41175271282.77582</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>41064204127.93819</v>
+        <v>41064203870.96193</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>40977185234.11461</v>
+        <v>40977185288.30588</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>40912934470.83024</v>
+        <v>40912933675.01117</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>40869823903.72462</v>
+        <v>40869824242.40079</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>40846038015.0344</v>
+        <v>40846037304.96661</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>40722343917.76806</v>
+        <v>40722343373.13513</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>40614753461.285</v>
+        <v>40614752563.12861</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>40521190286.8286</v>
+        <v>40521189734.98089</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>40439700389.01334</v>
+        <v>40439699802.33498</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>40368473662.10871</v>
+        <v>40368473061.70496</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>40305847579.55827</v>
+        <v>40305847396.55412</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>40250315181.18103</v>
+        <v>40250314905.07576</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>40200505929.97043</v>
+        <v>40200504962.9982</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>40155193661.79963</v>
+        <v>40155193213.00208</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>40113277660.56847</v>
+        <v>40113276762.75092</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>40073765092.24642</v>
+        <v>40073763847.79144</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>40035773475.62238</v>
+        <v>40035772399.47307</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>39998514434.47344</v>
+        <v>39998513176.36787</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>39961283130.47934</v>
+        <v>39961281922.45099</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>39923448002.74308</v>
+        <v>39923447432.09504</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>39884454971.5965</v>
+        <v>39884454731.21409</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>39843802123.64966</v>
+        <v>39843801012.52126</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>39801041117.35217</v>
+        <v>39801041105.43259</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>39755775170.04884</v>
+        <v>39755774982.99297</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>39707652623.33183</v>
+        <v>39707651787.24522</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>39656354315.82146</v>
+        <v>39656354168.75378</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>39601596284.68459</v>
+        <v>39601596470.46901</v>
       </c>
     </row>
     <row r="452">
